--- a/biology/Botanique/Forêt_du_Perche/Forêt_du_Perche.xlsx
+++ b/biology/Botanique/Forêt_du_Perche/Forêt_du_Perche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Perche</t>
+          <t>Forêt_du_Perche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt domaniale du Perche est située dans le département français de l'Orne, dans la région Normandie. Jusqu'au XVIe siècle, la forêt du Perche couvrait l'essentiel du comté du Perche[1]. La vénerie y est encore pratiquée.
+La forêt domaniale du Perche est située dans le département français de l'Orne, dans la région Normandie. Jusqu'au XVIe siècle, la forêt du Perche couvrait l'essentiel du comté du Perche. La vénerie y est encore pratiquée.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Perche</t>
+          <t>Forêt_du_Perche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt domaniale du Perche s'étend à la rencontre des territoires communaux de Bubertré, Prépotin, Randonnai, La Poterie-au-Perche, La Ventrouze et Tourouvre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt domaniale du Perche s'étend à la rencontre des territoires communaux de Bubertré, Prépotin, Randonnai, La Poterie-au-Perche, La Ventrouze et Tourouvre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Perche</t>
+          <t>Forêt_du_Perche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts du Perche occidental sont en zone naturelle d'intérêt écologique, faunistique et floristique[3].
-Les forêts domaniales du Perche et de la Trappe sont en zone naturelle d'intérêt écologique, faunistique et floristique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts du Perche occidental sont en zone naturelle d'intérêt écologique, faunistique et floristique.
+Les forêts domaniales du Perche et de la Trappe sont en zone naturelle d'intérêt écologique, faunistique et floristique.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_du_Perche</t>
+          <t>Forêt_du_Perche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Eau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au sud-ouest de cette forêt, la source de l'Avre est sur la commune de Bubertré.
-De nombreux étangs sont signalés par Géoportail[5] :
+De nombreux étangs sont signalés par Géoportail :
 l'étang du Gré : au nord-ouest sur la commune de Bresolettes.
 l'étang du Cachot : Sur la commune de Bresolettes.
 l'étang de La Forge : Sur la commune de Bresolettes.
